--- a/data/output_data5c.xlsx
+++ b/data/output_data5c.xlsx
@@ -70,11 +70,11 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFER self Foremz ((Timber 1)) EU: 0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2))(OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.033471222581490705</t>
+(TRANSFER self Foremz (Timber 1)) EU: 0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFORM self (INPUTS (Population 5) (MetallicElements 3) (MetallicAlloys 2)) (OUTPUTS (Population 5) (Electronics 2) (ElectonicsWaste 1))) EU: 0.033471222581490705</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -82,11 +82,11 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFER self Foremz ((Timber 1)) EU: -0.0053775699255773825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFER self Foremz ((MetallicElements 1)) EU: -0.0075</t>
+(TRANSFER self Foremz (Timber 1)) EU: -0.0053775699255773825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFER self Foremz (MetallicElements 1)) EU: -0.0075</t>
   </si>
 </sst>
 </file>

--- a/data/output_data5c.xlsx
+++ b/data/output_data5c.xlsx
@@ -49,13 +49,13 @@
     <t>Schedule 5</t>
   </si>
   <si>
-    <t>Expected Utility: 0.6779342938978686</t>
-  </si>
-  <si>
-    <t>Expected Utility: 0.6417291398396782</t>
-  </si>
-  <si>
-    <t>Expected Utility: 0.4842551151315782</t>
+    <t>Expected Utility: 0.6613603623607935</t>
+  </si>
+  <si>
+    <t>Expected Utility: 0.6002393640193577</t>
+  </si>
+  <si>
+    <t>Expected Utility: 0.44859803386544006</t>
   </si>
   <si>
     <t>(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.26783446216092305</t>
@@ -78,15 +78,15 @@
   </si>
   <si>
     <t xml:space="preserve">
-(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: 0.07335541784556646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFER self Foremz (Timber 1)) EU: -0.0053775699255773825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(TRANSFER self Foremz (MetallicElements 1)) EU: -0.0075</t>
+(TRANSFORM self (INPUTS (Population 1) (MetallicElements 2))  (OUTPUTS (Population 1) (MetallicAlloys 1) (MetallicAlloysWaste 1))) EU: -0.23423752907183626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFER self Foremz (Timber 1)) EU: -0.2688784962788691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(TRANSFER self Foremz (MetallicElements 1)) EU: -0.375</t>
   </si>
 </sst>
 </file>
